--- a/data_avg.xlsx
+++ b/data_avg.xlsx
@@ -481,31 +481,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34.38612862336969</v>
+        <v>34.16582937193893</v>
       </c>
       <c r="B2" t="n">
-        <v>258.0114566666666</v>
+        <v>270.0234607218684</v>
       </c>
       <c r="C2" t="n">
-        <v>259.4676540244839</v>
+        <v>273.5062590031691</v>
       </c>
       <c r="D2" t="n">
-        <v>921.9600933333334</v>
+        <v>964.2504912015546</v>
       </c>
       <c r="E2" t="n">
-        <v>915.5050218486274</v>
+        <v>965.9675039613944</v>
       </c>
       <c r="F2" t="n">
-        <v>78.50395499999999</v>
+        <v>79.93564899780489</v>
       </c>
       <c r="G2" t="n">
-        <v>77.53841855965844</v>
+        <v>79.27507382598674</v>
       </c>
       <c r="H2" t="n">
-        <v>78.10639166666668</v>
+        <v>79.10921407751269</v>
       </c>
       <c r="I2" t="n">
-        <v>77.60961673171219</v>
+        <v>79.10799661480841</v>
       </c>
     </row>
   </sheetData>

--- a/data_avg.xlsx
+++ b/data_avg.xlsx
@@ -481,31 +481,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34.16582937193893</v>
+        <v>34.40130848816811</v>
       </c>
       <c r="B2" t="n">
-        <v>270.0234607218684</v>
+        <v>257.854361671676</v>
       </c>
       <c r="C2" t="n">
-        <v>273.5062590031691</v>
+        <v>259.3977481831525</v>
       </c>
       <c r="D2" t="n">
-        <v>964.2504912015546</v>
+        <v>922.3781773293258</v>
       </c>
       <c r="E2" t="n">
-        <v>965.9675039613944</v>
+        <v>915.6534224752085</v>
       </c>
       <c r="F2" t="n">
-        <v>79.93564899780489</v>
+        <v>78.52249355946758</v>
       </c>
       <c r="G2" t="n">
-        <v>79.27507382598674</v>
+        <v>77.55986646618695</v>
       </c>
       <c r="H2" t="n">
-        <v>79.10921407751269</v>
+        <v>78.12878381279519</v>
       </c>
       <c r="I2" t="n">
-        <v>79.10799661480841</v>
+        <v>77.64043246339453</v>
       </c>
     </row>
   </sheetData>
